--- a/biology/Zoologie/Iksookimia/Iksookimia.xlsx
+++ b/biology/Zoologie/Iksookimia/Iksookimia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iksookimia est un genre de poissons d'eau douce téléostéens de la famille des Cobitidae (ordre des Cypriniformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les poissons de ce genre sont originaires de la péninsule coréenne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les poissons de ce genre sont originaires de la péninsule coréenne.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 décembre 2023) :
 Iksookimia hugowolfeldi Nalbant, 1993
 Iksookimia koreensis (Kim, 1975)
 Iksookimia longicorpa (Kim, Choi &amp; Nalbant, 1976)
 Iksookimia pumila (Kim &amp; Lee, 1987)
 Iksookimia yongdokensis Kim &amp; Park, 1997
-Auxquelles Maurice Kottelat ajoute Iksookimia pacifica (Kim, Park &amp; Nalbant, 1999) tout en précisant qu'il ne s'agit que d'un synonyme junior de Cobitis pacifica Kim, Park &amp; Nalbant, 1999[3].
+Auxquelles Maurice Kottelat ajoute Iksookimia pacifica (Kim, Park &amp; Nalbant, 1999) tout en précisant qu'il ne s'agit que d'un synonyme junior de Cobitis pacifica Kim, Park &amp; Nalbant, 1999.
 </t>
         </is>
       </c>
@@ -579,10 +595,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Iksookimia Nalbant, 1993[2].
-Iksookimia a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Iksookimia Nalbant, 1993.
+Iksookimia a pour synonyme :
 Ikssokimia (graphie incorrecte)</t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) T.T. Nalbant, « Some problems in the systematics of the genus Cobitis and its relatives (Pisces, Ostariophysi, Cobitidae) », Revue Roumaine de Biologie, Roumanie, biologie Animale, vol. 38, no 2,‎ 1993, p. 101-110.</t>
         </is>
